--- a/charts.xlsx
+++ b/charts.xlsx
@@ -15,27 +15,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <si>
-    <t>Title 1</t>
-  </si>
-  <si>
-    <t>Title 2</t>
-  </si>
-  <si>
-    <t>Title 3</t>
-  </si>
-  <si>
-    <t>Field 1</t>
-  </si>
-  <si>
-    <t>Field 2</t>
-  </si>
-  <si>
-    <t>Field 3</t>
-  </si>
-  <si>
-    <t>Field 4</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t>Bugs</t>
+  </si>
+  <si>
+    <t>Backlog Item</t>
+  </si>
+  <si>
+    <t>Total de itens por tipo</t>
+  </si>
+  <si>
+    <t>Tipos</t>
+  </si>
+  <si>
+    <t>Itens por tipo</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Product Backlog Item</t>
+  </si>
+  <si>
+    <t>Bug</t>
+  </si>
+  <si>
+    <t>Task</t>
   </si>
 </sst>
 </file>
@@ -84,7 +90,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="ru-RU"/>
   <c:chart>
     <c:plotArea>
@@ -97,52 +103,34 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Table!$B$1</c:f>
+              <c:f>Table!$B$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Title 1</c:v>
+                  <c:v>Bugs</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>Table!$A$2:$A$5</c:f>
+              <c:f>Table!$A$3:$A$3</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>Field 1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Field 2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Field 3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Field 4</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Table!$B$2:$B$5</c:f>
+              <c:f>Table!$B$3:$B$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>20</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -153,108 +141,34 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Table!$C$1</c:f>
+              <c:f>Table!$C$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Title 2</c:v>
+                  <c:v>Backlog Item</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>Table!$A$2:$A$5</c:f>
+              <c:f>Table!$A$3:$A$3</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>Field 1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Field 2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Field 3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Field 4</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Table!$C$2:$C$5</c:f>
+              <c:f>Table!$C$3:$C$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>15</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Table!$D$1</c:f>
-              <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Title 3</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>Table!$A$2:$A$5</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>Field 1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Field 2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Field 3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Field 4</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Table!$D$2:$D$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -295,29 +209,172 @@
       <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Total de itens por tipo</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75" footer="0.3" header="0.3" l="0.7" r="0.7" t="0.75"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="ru-RU"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Table!$B$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tipos</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Table!$A$7:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Product Backlog Item</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Bug</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Task</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Table!$B$7:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="49222784"/>
+        <c:axId val="49224320"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="49222784"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="49224320"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="49224320"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="49222784"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Itens por tipo</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" footer="0.3" header="0.3" l="0.7" r="0.7" t="0.75"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>76199</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -331,6 +388,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Диаграмма 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -639,77 +726,68 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A5:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="B1" t="s">
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="B6" t="s">
         <v>3</v>
       </c>
-      <c r="B2">
-        <v>5</v>
-      </c>
-      <c r="C2">
-        <v>10</v>
-      </c>
-      <c r="D2">
-        <v>20</v>
-      </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3">
-        <v>10</v>
-      </c>
-      <c r="C3">
-        <v>5</v>
-      </c>
-      <c r="D3">
-        <v>15</v>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>148</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4">
-        <v>15</v>
-      </c>
-      <c r="C4">
-        <v>20</v>
-      </c>
-      <c r="D4">
-        <v>10</v>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>145</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5">
-        <v>20</v>
-      </c>
-      <c r="C5">
-        <v>15</v>
-      </c>
-      <c r="D5">
-        <v>5</v>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
